--- a/xlsx/Alexa Internet_intext.xlsx
+++ b/xlsx/Alexa Internet_intext.xlsx
@@ -29,19 +29,19 @@
     <t>Arri Alexa</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_Alexa Internet</t>
+    <t>政策_政策_维基百科_Alexa Internet</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%AB%99%E6%B5%81%E9%87%8F</t>
   </si>
   <si>
-    <t>網站流量</t>
+    <t>网站流量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>網際網路</t>
+    <t>网际网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E5%93%81</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/Alexa%E5%B7%A5%E5%85%B7%E6%AC%84</t>
   </si>
   <si>
-    <t>Alexa工具欄</t>
+    <t>Alexa工具栏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A7%E8%82%A1%E5%85%AC%E5%8F%B8</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%90%9C%E5%B0%8B%E5%BC%95%E6%93%8E</t>
   </si>
   <si>
-    <t>搜尋引擎</t>
+    <t>搜寻引擎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E6%90%9C%E7%B4%A2%E5%BC%95%E6%93%8E</t>
@@ -203,19 +203,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%A6%AC%E9%81%9C%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>亞馬遜公司</t>
+    <t>亚马逊公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1</t>
   </si>
   <si>
-    <t>舊金山</t>
+    <t>旧金山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91%E6%A1%A3%E6%A1%88%E9%A6%86</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%AB%99</t>
   </si>
   <si>
-    <t>網站</t>
+    <t>网站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%AC%8A%E5%B9%B3%E5%9D%87%E6%95%B8</t>
   </si>
   <si>
-    <t>加權平均數</t>
+    <t>加权平均数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Internet_Explorer</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%80%8F%E8%A6%BD%E5%99%A8</t>
   </si>
   <si>
-    <t>瀏覽器</t>
+    <t>浏览器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Alexa_Toolbar</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E5%AE%B6%E8%8F%AF</t>
   </si>
   <si>
-    <t>謝家華</t>
+    <t>谢家华</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Lab126</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%A6%AC%E9%81%9C%E7%B6%B2%E8%B7%AF%E6%9C%8D%E5%8B%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>亞馬遜網路服務系統</t>
+    <t>亚马逊网路服务系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Amazon_S3</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%A6%AC%E9%81%9C%E5%BD%B1%E7%89%87</t>
   </si>
   <si>
-    <t>亞馬遜影片</t>
+    <t>亚马逊影片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Kindle</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3179,7 +3179,7 @@
         <v>148</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
